--- a/TestCases/Back End/DeleteKPI-BackEnd-TeamLead.xlsx
+++ b/TestCases/Back End/DeleteKPI-BackEnd-TeamLead.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{215CDDF4-9D0B-4DEC-B067-69504E73A918}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{FF590EB8-B321-4B91-89F2-9F83353A37CE}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{215CDDF4-9D0B-4DEC-B067-69504E73A918}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{1475B6D7-D6BF-45F3-A17A-F58909F67405}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
-    <t xml:space="preserve">Role: Team Lead </t>
+    <t>Role: Team Lead </t>
   </si>
   <si>
     <t>Test Case: Testing to see if deleting a kpi affects it in the database</t>
@@ -403,9 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/TestCases/Back End/DeleteKPI-BackEnd-TeamLead.xlsx
+++ b/TestCases/Back End/DeleteKPI-BackEnd-TeamLead.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{215CDDF4-9D0B-4DEC-B067-69504E73A918}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{1475B6D7-D6BF-45F3-A17A-F58909F67405}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{215CDDF4-9D0B-4DEC-B067-69504E73A918}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{E8D19122-F0E5-4E55-A034-869C5C1BFA9E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Role: Team Lead </t>
   </si>
@@ -41,19 +41,31 @@
     <t>I am returned to the login page</t>
   </si>
   <si>
-    <t>Step 2: Log in and go to the KPI page and delete one that belongs to someone on my team</t>
+    <t>Step 2: Log in as a user with the appropriate role</t>
+  </si>
+  <si>
+    <t>I am redirected to the user's dashboard</t>
+  </si>
+  <si>
+    <t>Step 3: Go to the "Team KPI" page </t>
+  </si>
+  <si>
+    <t>I am redirected to a page of KPIs of people on my team</t>
+  </si>
+  <si>
+    <t>Step 4:Delete one that belongs to someone on my team</t>
   </si>
   <si>
     <t>The data is removed from the database.</t>
   </si>
   <si>
-    <t>Step 3: While logged in try to delete a kpi about me</t>
+    <t>Step 5: While logged in try to delete a kpi about me</t>
   </si>
   <si>
     <t>I am denied access to this</t>
   </si>
   <si>
-    <t>Step 4: Try to delete a kpi of someone who is not under my team</t>
+    <t>Step 6: Try to delete a kpi of someone who is not under my team</t>
   </si>
 </sst>
 </file>
@@ -403,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -465,11 +479,24 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60.75" customHeight="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60.75" customHeight="1">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
   </sheetData>
